--- a/threads.xlsx
+++ b/threads.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">threads</t>
   </si>
@@ -67,33 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve">data.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On second</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with 2 thr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With 4:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On third</t>
-  </si>
-  <si>
-    <t xml:space="preserve">almost the </t>
-  </si>
-  <si>
-    <t xml:space="preserve">same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as on</t>
   </si>
   <si>
     <t xml:space="preserve">Main comp </t>
@@ -270,7 +243,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -664,11 +637,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="43308017"/>
-        <c:axId val="65247926"/>
+        <c:axId val="7395315"/>
+        <c:axId val="81517801"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43308017"/>
+        <c:axId val="7395315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,14 +677,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65247926"/>
+        <c:crossAx val="81517801"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65247926"/>
+        <c:axId val="81517801"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +730,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43308017"/>
+        <c:crossAx val="7395315"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -794,7 +767,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -856,22 +829,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,11 +924,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="48507281"/>
-        <c:axId val="61332212"/>
+        <c:axId val="25308447"/>
+        <c:axId val="38502357"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48507281"/>
+        <c:axId val="25308447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,14 +963,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61332212"/>
+        <c:crossAx val="38502357"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61332212"/>
+        <c:axId val="38502357"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1014,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48507281"/>
+        <c:crossAx val="25308447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1150,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1322,13 +1295,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,13 +1330,13 @@
         <v>2</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,13 +1344,13 @@
         <v>3</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,13 +1364,13 @@
         <v>4</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,75 +1387,42 @@
         <v>5</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="J11" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L13" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/threads.xlsx
+++ b/threads.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">threads</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t xml:space="preserve">computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On HP 250 G4 OS: Ubuntu 16.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel(R) Core(TM) i3-5005U CPU @ 2.00GHz</t>
   </si>
   <si>
     <t xml:space="preserve">file, mb</t>
@@ -85,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -116,6 +122,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -162,13 +174,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -243,7 +259,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -637,11 +653,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="7395315"/>
-        <c:axId val="81517801"/>
+        <c:axId val="82803770"/>
+        <c:axId val="81287808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7395315"/>
+        <c:axId val="82803770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,14 +693,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81517801"/>
+        <c:crossAx val="81287808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81517801"/>
+        <c:axId val="81287808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +746,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7395315"/>
+        <c:crossAx val="82803770"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -767,7 +783,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -778,10 +794,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="-3.12519532471023E-005"/>
-          <c:y val="0.133848205356151"/>
-          <c:w val="0.761860116257266"/>
-          <c:h val="0.865985109456606"/>
+          <c:x val="0"/>
+          <c:y val="0.133795227097768"/>
+          <c:w val="0.761777975001849"/>
+          <c:h val="0.865896843725943"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -815,6 +831,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -880,6 +897,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -924,11 +942,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="25308447"/>
-        <c:axId val="38502357"/>
+        <c:axId val="93501472"/>
+        <c:axId val="10214537"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25308447"/>
+        <c:axId val="93501472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,14 +981,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38502357"/>
+        <c:crossAx val="10214537"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38502357"/>
+        <c:axId val="10214537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +1003,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1014,7 +1032,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25308447"/>
+        <c:crossAx val="93501472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1057,14 +1075,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>117360</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>421920</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1072,8 +1090,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6346440" y="2347920"/>
-        <a:ext cx="5638680" cy="2742840"/>
+        <a:off x="6356160" y="1681200"/>
+        <a:ext cx="9444600" cy="2041560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1087,14 +1105,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>582840</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>735840</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1102,8 +1120,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="582840" y="2447640"/>
-        <a:ext cx="4858200" cy="2338200"/>
+        <a:off x="582840" y="1780920"/>
+        <a:ext cx="4867560" cy="1636920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1121,16 +1139,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="13" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="51.3724696356275"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,8 +1207,11 @@
       <c r="M2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -1209,6 +1232,9 @@
       </c>
       <c r="G3" s="0" t="n">
         <v>19</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,10 +1381,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>4</v>
@@ -1375,13 +1401,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>5</v>
@@ -1396,7 +1422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="J11" s="0" t="n">
@@ -1414,15 +1440,15 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L13" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/threads.xlsx
+++ b/threads.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t xml:space="preserve">threads</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comps</t>
   </si>
 </sst>
 </file>
@@ -259,7 +265,293 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="0.133795227097768"/>
+          <c:w val="0.761777975001849"/>
+          <c:h val="0.865896843725943"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>second</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$M$6:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>main</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>main</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="65348373"/>
+        <c:axId val="58140205"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65348373"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58140205"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58140205"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65348373"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -653,11 +945,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="82803770"/>
-        <c:axId val="81287808"/>
+        <c:axId val="27939049"/>
+        <c:axId val="76128092"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82803770"/>
+        <c:axId val="27939049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,14 +985,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81287808"/>
+        <c:crossAx val="76128092"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81287808"/>
+        <c:axId val="76128092"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,7 +1038,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82803770"/>
+        <c:crossAx val="27939049"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -783,306 +1075,20 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.133795227097768"/>
-          <c:w val="0.761777975001849"/>
-          <c:h val="0.865896843725943"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>second</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>second</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$M$6:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>main</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>main</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$G$2:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="93501472"/>
-        <c:axId val="10214537"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="93501472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="10214537"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="10214537"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="93501472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:colOff>28080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>421920</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:colOff>332640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1090,7 +1096,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6356160" y="1681200"/>
+        <a:off x="6266880" y="2570400"/>
         <a:ext cx="9444600" cy="2041560"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1103,16 +1109,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>582840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>329400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>735840</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1120,7 +1126,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="582840" y="1780920"/>
+        <a:off x="1234080" y="2766600"/>
         <a:ext cx="4867560" cy="1636920"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1142,7 +1148,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1449,6 +1455,12 @@
       </c>
       <c r="E14" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
